--- a/teaching/traditional_assets/database/data/france/france_bank_money_center.xlsx
+++ b/teaching/traditional_assets/database/data/france/france_bank_money_center.xlsx
@@ -591,13 +591,13 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.0374</v>
+        <v>0.00396</v>
       </c>
       <c r="E2">
-        <v>0.0926</v>
+        <v>0.02349</v>
       </c>
       <c r="F2">
-        <v>0.0362</v>
+        <v>0.0233</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -612,85 +612,82 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>16331.9</v>
+        <v>13479.3</v>
       </c>
       <c r="L2">
-        <v>0.1796050468315439</v>
+        <v>0.1472342981977062</v>
       </c>
       <c r="M2">
-        <v>4207.1456</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>0.02892705848055347</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0.2576029488302035</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>4207.1456</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>0.02892705848055347</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>0.2576029488302035</v>
+        <v>0</v>
       </c>
       <c r="S2">
         <v>0</v>
       </c>
-      <c r="T2">
-        <v>0</v>
-      </c>
       <c r="U2">
-        <v>372125.3</v>
+        <v>564901.4</v>
       </c>
       <c r="V2">
-        <v>2.558620817685393</v>
+        <v>4.710070805137458</v>
       </c>
       <c r="W2">
-        <v>0.06779794322347039</v>
+        <v>0.07310158026835856</v>
       </c>
       <c r="X2">
-        <v>0.2024490823228669</v>
+        <v>0.2703759066830965</v>
       </c>
       <c r="Y2">
-        <v>-0.1346511390993965</v>
+        <v>-0.197274326414738</v>
       </c>
       <c r="Z2">
-        <v>0.08519660871170208</v>
+        <v>0.06874464469456164</v>
       </c>
       <c r="AA2">
         <v>0</v>
       </c>
       <c r="AB2">
-        <v>0.03892235605343801</v>
+        <v>0.03540300590080994</v>
       </c>
       <c r="AC2">
-        <v>-0.03892235605343801</v>
+        <v>-0.03540300590080994</v>
       </c>
       <c r="AD2">
-        <v>1480270.4</v>
+        <v>1489519.7</v>
       </c>
       <c r="AE2">
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>1480270.4</v>
+        <v>1489519.7</v>
       </c>
       <c r="AG2">
-        <v>1108145.1</v>
+        <v>924618.3000000002</v>
       </c>
       <c r="AH2">
-        <v>0.9105376837766042</v>
+        <v>0.9254810869148522</v>
       </c>
       <c r="AI2">
-        <v>0.8448391583103747</v>
+        <v>0.8331166158786404</v>
       </c>
       <c r="AJ2">
-        <v>0.8839808935158679</v>
+        <v>0.8851807533767312</v>
       </c>
       <c r="AK2">
-        <v>0.8029993315253721</v>
+        <v>0.7560326878318923</v>
       </c>
       <c r="AL2">
         <v>0</v>
@@ -716,10 +713,13 @@
         </is>
       </c>
       <c r="D3">
-        <v>0.0374</v>
+        <v>0.00396</v>
+      </c>
+      <c r="E3">
+        <v>-0.00222</v>
       </c>
       <c r="F3">
-        <v>0.0548</v>
+        <v>0.0067</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -734,10 +734,10 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>8468</v>
+        <v>8600.299999999999</v>
       </c>
       <c r="L3">
-        <v>0.1861814983784972</v>
+        <v>0.1816382778757511</v>
       </c>
       <c r="M3">
         <v>-0</v>
@@ -761,55 +761,55 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>182023.8</v>
+        <v>370896</v>
       </c>
       <c r="V3">
-        <v>2.458023926139287</v>
+        <v>5.631488086290693</v>
       </c>
       <c r="W3">
-        <v>0.07297458471359974</v>
+        <v>0.0736054185391888</v>
       </c>
       <c r="X3">
-        <v>0.2024490823228669</v>
+        <v>0.2084047404425275</v>
       </c>
       <c r="Y3">
-        <v>-0.1294744976092672</v>
+        <v>-0.1347993219033387</v>
       </c>
       <c r="Z3">
-        <v>0.1079577943355656</v>
+        <v>0.06970314059767588</v>
       </c>
       <c r="AA3">
         <v>0</v>
       </c>
       <c r="AB3">
-        <v>0.03892015355501226</v>
+        <v>0.03537416153040585</v>
       </c>
       <c r="AC3">
-        <v>-0.03892015355501226</v>
+        <v>-0.03537416153040585</v>
       </c>
       <c r="AD3">
-        <v>752996.4</v>
+        <v>639193.3</v>
       </c>
       <c r="AE3">
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>752996.4</v>
+        <v>639193.3</v>
       </c>
       <c r="AG3">
-        <v>570972.6000000001</v>
+        <v>268297.3</v>
       </c>
       <c r="AH3">
-        <v>0.9104613231641693</v>
+        <v>0.9065872080225299</v>
       </c>
       <c r="AI3">
-        <v>0.8608692580289018</v>
+        <v>0.823772026176945</v>
       </c>
       <c r="AJ3">
-        <v>0.885193841173721</v>
+        <v>0.8029045506562158</v>
       </c>
       <c r="AK3">
-        <v>0.8243076457986518</v>
+        <v>0.6623991732148063</v>
       </c>
       <c r="AL3">
         <v>0</v>
@@ -835,13 +835,13 @@
         </is>
       </c>
       <c r="D4">
-        <v>0.068</v>
+        <v>0.04219999999999999</v>
       </c>
       <c r="E4">
-        <v>0.131</v>
+        <v>0.0492</v>
       </c>
       <c r="F4">
-        <v>0.0362</v>
+        <v>0.0233</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -856,85 +856,82 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>4568.7</v>
+        <v>4965.9</v>
       </c>
       <c r="L4">
-        <v>0.2236554823423441</v>
+        <v>0.2347854454677837</v>
       </c>
       <c r="M4">
-        <v>2167.8656</v>
+        <v>-0</v>
       </c>
       <c r="N4">
-        <v>0.05184532490236547</v>
+        <v>-0</v>
       </c>
       <c r="O4">
-        <v>0.4745038194672446</v>
+        <v>-0</v>
       </c>
       <c r="P4">
-        <v>2167.8656</v>
+        <v>-0</v>
       </c>
       <c r="Q4">
-        <v>0.05184532490236547</v>
+        <v>-0</v>
       </c>
       <c r="R4">
-        <v>0.4745038194672446</v>
+        <v>-0</v>
       </c>
       <c r="S4">
         <v>0</v>
       </c>
-      <c r="T4">
-        <v>0</v>
-      </c>
       <c r="U4">
-        <v>86577.3</v>
+        <v>0</v>
       </c>
       <c r="V4">
-        <v>2.070528840749891</v>
+        <v>0</v>
       </c>
       <c r="W4">
-        <v>0.06779794322347039</v>
+        <v>0.07310158026835856</v>
       </c>
       <c r="X4">
-        <v>0.201201430889736</v>
+        <v>0.2703759066830965</v>
       </c>
       <c r="Y4">
-        <v>-0.1334034876662656</v>
+        <v>-0.197274326414738</v>
       </c>
       <c r="Z4">
-        <v>0.05279838632970651</v>
+        <v>0.05476397490118259</v>
       </c>
       <c r="AA4">
         <v>0</v>
       </c>
       <c r="AB4">
-        <v>0.03892235605343801</v>
+        <v>0.03540300590080994</v>
       </c>
       <c r="AC4">
-        <v>-0.03892235605343801</v>
+        <v>-0.03540300590080994</v>
       </c>
       <c r="AD4">
-        <v>421873.3</v>
+        <v>478721.2</v>
       </c>
       <c r="AE4">
         <v>0</v>
       </c>
       <c r="AF4">
-        <v>421873.3</v>
+        <v>478721.2</v>
       </c>
       <c r="AG4">
-        <v>335296</v>
+        <v>478721.2</v>
       </c>
       <c r="AH4">
-        <v>0.9098226520712015</v>
+        <v>0.9293694933364809</v>
       </c>
       <c r="AI4">
-        <v>0.8484649133833246</v>
+        <v>0.8500200909784849</v>
       </c>
       <c r="AJ4">
-        <v>0.8891196496726023</v>
+        <v>0.9293694933364809</v>
       </c>
       <c r="AK4">
-        <v>0.8165161788048086</v>
+        <v>0.8500200909784849</v>
       </c>
       <c r="AL4">
         <v>0</v>
@@ -960,13 +957,10 @@
         </is>
       </c>
       <c r="D5">
-        <v>-0.0152</v>
-      </c>
-      <c r="E5">
-        <v>0.0542</v>
+        <v>-0.0363</v>
       </c>
       <c r="F5">
-        <v>-0.0316</v>
+        <v>0.321</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -981,85 +975,82 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>3295.2</v>
+        <v>-86.90000000000001</v>
       </c>
       <c r="L5">
-        <v>0.1316900057548437</v>
+        <v>-0.003769950587183903</v>
       </c>
       <c r="M5">
-        <v>2039.28</v>
+        <v>-0</v>
       </c>
       <c r="N5">
-        <v>0.06895796136990748</v>
+        <v>-0</v>
       </c>
       <c r="O5">
-        <v>0.6188638018936635</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>2039.28</v>
+        <v>-0</v>
       </c>
       <c r="Q5">
-        <v>0.06895796136990748</v>
+        <v>-0</v>
       </c>
       <c r="R5">
-        <v>0.6188638018936635</v>
+        <v>0</v>
       </c>
       <c r="S5">
         <v>0</v>
       </c>
-      <c r="T5">
-        <v>0</v>
-      </c>
       <c r="U5">
-        <v>103524.2</v>
+        <v>194005.4</v>
       </c>
       <c r="V5">
-        <v>3.500656008223773</v>
+        <v>10.96589926349644</v>
       </c>
       <c r="W5">
-        <v>0.0471525589621629</v>
+        <v>-0.001250820446092374</v>
       </c>
       <c r="X5">
-        <v>0.2049526759842971</v>
+        <v>0.4111932905859613</v>
       </c>
       <c r="Y5">
-        <v>-0.1578001170221342</v>
+        <v>-0.4124441110320537</v>
       </c>
       <c r="Z5">
-        <v>0.09656322683196872</v>
+        <v>0.08658034186364819</v>
       </c>
       <c r="AA5">
         <v>0</v>
       </c>
       <c r="AB5">
-        <v>0.03955371793375147</v>
+        <v>0.03619853991575021</v>
       </c>
       <c r="AC5">
-        <v>-0.03955371793375147</v>
+        <v>-0.03619853991575021</v>
       </c>
       <c r="AD5">
-        <v>305400.7</v>
+        <v>371605.2</v>
       </c>
       <c r="AE5">
         <v>0</v>
       </c>
       <c r="AF5">
-        <v>305400.7</v>
+        <v>371605.2</v>
       </c>
       <c r="AG5">
-        <v>201876.5</v>
+        <v>177599.8</v>
       </c>
       <c r="AH5">
-        <v>0.9117160014150374</v>
+        <v>0.9545547370143456</v>
       </c>
       <c r="AI5">
-        <v>0.8032206074269594</v>
+        <v>0.8280604270646292</v>
       </c>
       <c r="AJ5">
-        <v>0.8722277405894078</v>
+        <v>0.9094087556294053</v>
       </c>
       <c r="AK5">
-        <v>0.7295967415502934</v>
+        <v>0.697124827877488</v>
       </c>
       <c r="AL5">
         <v>0</v>
